--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200322.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200322.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\3.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35408A9A-6AAD-4611-B10A-4FE56AC2AC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16412DF5-11E0-494A-9A83-436F5EF05EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10735,8 +10735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -14336,7 +14336,9 @@
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
+      <c r="I59" s="16">
+        <v>1</v>
+      </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
